--- a/biology/Histoire de la zoologie et de la botanique/Théodore_Caruel/Théodore_Caruel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Théodore_Caruel/Théodore_Caruel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Caruel</t>
+          <t>Théodore_Caruel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théodore Caruel (né à Chandernagor en 1830 et mort à Florence en 1898) est un botaniste italien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Caruel</t>
+          <t>Théodore_Caruel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans les Indes françaises, d'un père français et d'une mère anglaise, il arrive très jeune à Florence où il étudie la botanique à l'université. Il travaille à Milan, puis à Pise où il devient directeur du jardin botanique, avant de revenir à Florence comme directeur du jardin des simples de 1865 à 1895.
 Il a collaboré aux Monographiae Phanerogamarum publiées par Anne Casimir Pyrame de Candolle en complément au Prodromus Systematis Naturalis Regni Vegetabilis et a terminé la Flora italiana de Filippo Parlatore.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Caruel</t>
+          <t>Théodore_Caruel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1860 : Prodromo della flora Toscana
 1878 : La Morfologia Vegetale
